--- a/information/raw_databases/SERNAPESCA/landings/landings_fabric_vessels_per_species_region_month_2017.xlsx
+++ b/information/raw_databases/SERNAPESCA/landings/landings_fabric_vessels_per_species_region_month_2017.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27510"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargaspoulsen/github/main-fisheries-chile/information/raw_databases/SERNAPESCA/landings/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19440" windowHeight="12270"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="19440" windowHeight="12280"/>
   </bookViews>
   <sheets>
-    <sheet name="bf_nac_región" sheetId="1" r:id="rId1"/>
+    <sheet name="bf_nac_region" sheetId="1" r:id="rId1"/>
     <sheet name="bf_nac_mes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">bf_nac_mes!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bf_nac_región!$A$5:$P$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bf_nac_region!$A$5:$P$18</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">bf_nac_mes!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">bf_nac_región!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">bf_nac_region!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -305,10 +318,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -317,7 +330,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,12 +527,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -549,12 +562,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -758,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q27"/>
@@ -767,13 +780,13 @@
       <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="16" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
+    <col min="2" max="16" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>49</v>
       </c>
@@ -794,7 +807,7 @@
       <c r="P1" s="38"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
@@ -815,7 +828,7 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
         <v>1</v>
       </c>
@@ -836,7 +849,7 @@
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -854,7 +867,7 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:17" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -904,7 +917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>18</v>
       </c>
@@ -955,7 +968,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>39</v>
       </c>
@@ -1006,7 +1019,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>40</v>
       </c>
@@ -1057,7 +1070,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>41</v>
       </c>
@@ -1108,7 +1121,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>42</v>
       </c>
@@ -1159,7 +1172,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>43</v>
       </c>
@@ -1210,7 +1223,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>44</v>
       </c>
@@ -1261,7 +1274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>45</v>
       </c>
@@ -1312,7 +1325,7 @@
         <v>9362</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>46</v>
       </c>
@@ -1363,7 +1376,7 @@
         <v>8233</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>47</v>
       </c>
@@ -1414,7 +1427,7 @@
         <v>6669</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>19</v>
       </c>
@@ -1465,7 +1478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>48</v>
       </c>
@@ -1516,7 +1529,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>50</v>
       </c>
@@ -1567,7 +1580,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -1585,7 +1598,7 @@
       <c r="O19" s="31"/>
       <c r="P19" s="31"/>
     </row>
-    <row r="20" spans="1:16" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
         <v>51</v>
       </c>
@@ -1636,7 +1649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -1654,7 +1667,7 @@
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
     </row>
-    <row r="22" spans="1:16" s="9" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="9" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
@@ -1704,72 +1717,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="9" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="9" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="8">
-        <f>SUM(B6:B18)</f>
+        <f t="shared" ref="B23:P23" si="1">SUM(B6:B18)</f>
         <v>0</v>
       </c>
       <c r="C23" s="8">
-        <f>SUM(C6:C18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D23" s="8">
-        <f>SUM(D6:D18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E23" s="8">
-        <f>SUM(E6:E18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F23" s="8">
-        <f>SUM(F6:F18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23" s="8">
-        <f>SUM(G6:G18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H23" s="8">
-        <f>SUM(H6:H18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I23" s="8">
-        <f>SUM(I6:I18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J23" s="8">
-        <f>SUM(J6:J18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K23" s="8">
-        <f>SUM(K6:K18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L23" s="8">
-        <f>SUM(L6:L18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M23" s="8">
-        <f>SUM(M6:M18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N23" s="8">
-        <f>SUM(N6:N18)</f>
+        <f t="shared" si="1"/>
         <v>4703</v>
       </c>
       <c r="O23" s="8">
-        <f>SUM(O6:O18)</f>
+        <f t="shared" si="1"/>
         <v>24968</v>
       </c>
       <c r="P23" s="8">
-        <f>SUM(P6:P18)</f>
+        <f t="shared" si="1"/>
         <v>29671</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="9" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="9" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>22</v>
       </c>
@@ -1778,63 +1791,63 @@
         <v>0</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" ref="C24:P24" si="1">SUM(C20)</f>
+        <f t="shared" ref="C24:P24" si="2">SUM(C20)</f>
         <v>0</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="P24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="9" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="9" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
@@ -1884,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="9" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="9" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
@@ -1934,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="9" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="9" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>25</v>
       </c>
@@ -1943,59 +1956,59 @@
         <v>0</v>
       </c>
       <c r="C27" s="11">
-        <f t="shared" ref="C27:P27" si="2">SUM(C22:C26)</f>
+        <f t="shared" ref="C27:P27" si="3">SUM(C22:C26)</f>
         <v>0</v>
       </c>
       <c r="D27" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E27" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F27" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G27" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H27" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I27" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J27" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K27" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L27" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M27" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N27" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4703</v>
       </c>
       <c r="O27" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24972</v>
       </c>
       <c r="P27" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29675</v>
       </c>
     </row>
@@ -2013,7 +2026,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N28"/>
@@ -2022,13 +2035,13 @@
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="14" width="6.7109375" customWidth="1"/>
+    <col min="2" max="14" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>52</v>
       </c>
@@ -2046,7 +2059,7 @@
       <c r="M1" s="39"/>
       <c r="N1" s="39"/>
     </row>
-    <row r="2" spans="1:14" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>26</v>
       </c>
@@ -2064,7 +2077,7 @@
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
     </row>
-    <row r="3" spans="1:14" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
@@ -2082,7 +2095,7 @@
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
     </row>
-    <row r="4" spans="1:14" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -2097,7 +2110,7 @@
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
     </row>
-    <row r="5" spans="1:14" s="18" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="18" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
@@ -2141,7 +2154,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="18" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="18" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>18</v>
       </c>
@@ -2186,7 +2199,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="18" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="18" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>39</v>
       </c>
@@ -2231,7 +2244,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="18" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="18" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>40</v>
       </c>
@@ -2276,7 +2289,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="18" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="18" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>41</v>
       </c>
@@ -2321,7 +2334,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="18" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="18" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>42</v>
       </c>
@@ -2366,7 +2379,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="18" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="18" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>43</v>
       </c>
@@ -2411,7 +2424,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="18" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="18" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>44</v>
       </c>
@@ -2456,7 +2469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="18" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="18" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>45</v>
       </c>
@@ -2501,7 +2514,7 @@
         <v>9362</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="18" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="18" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>46</v>
       </c>
@@ -2546,7 +2559,7 @@
         <v>8233</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="18" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="18" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>47</v>
       </c>
@@ -2591,7 +2604,7 @@
         <v>6669</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="18" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="18" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>19</v>
       </c>
@@ -2636,7 +2649,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="18" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="18" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>48</v>
       </c>
@@ -2681,7 +2694,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="18" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="18" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="29" t="s">
         <v>50</v>
       </c>
@@ -2726,7 +2739,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="18" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="18" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -2742,7 +2755,7 @@
       <c r="M19" s="34"/>
       <c r="N19" s="34"/>
     </row>
-    <row r="20" spans="1:14" s="18" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="18" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="29" t="s">
         <v>51</v>
       </c>
@@ -2787,7 +2800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="18" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="18" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -2803,7 +2816,7 @@
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
     </row>
-    <row r="22" spans="1:14" s="9" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="9" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
@@ -2847,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="9" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="9" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
@@ -2891,7 +2904,7 @@
         <v>29671</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="9" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="9" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>22</v>
       </c>
@@ -2935,7 +2948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="9" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="9" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
@@ -2979,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="9" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="9" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
@@ -3023,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="9" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="9" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>25</v>
       </c>
@@ -3080,7 +3093,7 @@
         <v>29675</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:N1"/>
